--- a/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,04</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,47</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,74</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,08</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,56</t>
+          <t>1,28; 6,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,55</t>
+          <t>0,44; 4,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,25</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,96</t>
+          <t>0,81; 3,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,5</t>
+          <t>0,27; 2,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,4</t>
+          <t>0,3; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,96; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>1,0; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,39; 3,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,94</t>
+          <t>0,98; 4,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,33</t>
+          <t>1,6; 5,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,52; 2,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,96</t>
+          <t>1,36; 3,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,71</t>
+          <t>1,66; 4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 44,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,4</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,94</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,33</t>
+          <t>0; 1,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,96</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,71</t>
+          <t>0; 0,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,04</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,47</t>
+          <t>0,48; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,74</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,08</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,56</t>
+          <t>1,29; 7,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,55</t>
+          <t>0,55; 4,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,25</t>
+          <t>0,31; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,96</t>
+          <t>1,27; 4,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,5</t>
+          <t>0,53; 2,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,19</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,1</t>
+          <t>0,91; 5,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,1</t>
+          <t>1,24; 7,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,09</t>
+          <t>0,36; 3,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,47</t>
+          <t>1,04; 5,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,15</t>
+          <t>2,18; 8,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,74</t>
+          <t>0,38; 2,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,18</t>
+          <t>1,37; 4,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>2,22; 6,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 2,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 3,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 2,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 4,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 4,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 1,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 3,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,35; 3,12</t>
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,25</t>
+          <t>0,49; 4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,61</t>
+          <t>1,27; 7,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,58</t>
+          <t>0,48; 4,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,87</t>
+          <t>0,31; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,58</t>
+          <t>1,28; 4,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,81</t>
+          <t>0,64; 3,02</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,21</t>
+          <t>0,92; 5,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,32</t>
+          <t>1,25; 7,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,73</t>
+          <t>0,37; 3,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,95</t>
+          <t>1,33; 6,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,1</t>
+          <t>2,13; 8,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,27</t>
+          <t>0,38; 2,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,61</t>
+          <t>1,42; 4,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,3</t>
+          <t>2,3; 6,16</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,24</t>
+          <t>0,37; 2,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,22</t>
+          <t>0,8; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,19</t>
+          <t>0,81; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,11</t>
+          <t>0,35; 2,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,44</t>
+          <t>1,39; 4,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,34</t>
+          <t>1,41; 4,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,66</t>
+          <t>0,49; 1,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,3</t>
+          <t>1,41; 3,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,12</t>
+          <t>1,35; 3,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,85%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,78%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -795,42 +795,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0; 1,83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 1,61</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,83</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,58%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,89%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,94</t>
+          <t>1,26; 7,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,49; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 5,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,02</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,39</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,18</t>
+          <t>0,31; 3,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,89</t>
+          <t>1,3; 4,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,02</t>
+          <t>0,45; 2,83</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,74%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3,57%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,37; 3,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,78</t>
+          <t>0,99; 5,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,14</t>
+          <t>1,86; 8,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,68</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,3</t>
+          <t>0,91; 5,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,06</t>
+          <t>1,25; 7,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,38</t>
+          <t>0,37; 2,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,65</t>
+          <t>1,32; 4,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,16</t>
+          <t>2,3; 6,4</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,98%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,67%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,27</t>
+          <t>0,36; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,06</t>
+          <t>1,51; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,37</t>
+          <t>1,4; 4,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,08</t>
+          <t>0,37; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,32</t>
+          <t>0,77; 3,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,1</t>
+          <t>0,66; 3,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,71</t>
+          <t>0,48; 1,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,21</t>
+          <t>1,42; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,15</t>
+          <t>1,35; 3,12</t>
         </is>
       </c>
     </row>
